--- a/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
+++ b/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010330</t>
+          <t>160314</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合A</t>
+          <t>华夏行业混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.10</t>
+          <t>29.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9538</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011462</t>
+          <t>007777</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合C</t>
+          <t>中邮研究精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.10</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5897</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010434</t>
+          <t>002474</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>红土创新医疗保健股票</t>
+          <t>中邮睿信增强债券</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50.44</t>
+          <t>27.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4766</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>590006</t>
+          <t>010330</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮中小盘灵活配置混合</t>
+          <t>东吴兴享成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>80.25</t>
+          <t>34.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4329</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160314</t>
+          <t>590006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏行业混合(LOF)</t>
+          <t>中邮中小盘灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.26</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.92</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501008</t>
+          <t>009077</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+          <t>红土创新稳进混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009077</t>
+          <t>009078</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>红土创新稳进混合A</t>
+          <t>红土创新稳进混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>33.47</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>0.90</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009078</t>
+          <t>501008</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>红土创新稳进混合C</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33.47</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002474</t>
+          <t>010434</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中邮睿信增强债券</t>
+          <t>红土创新医疗保健股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20.06</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007777</t>
+          <t>011462</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中邮研究精选混合</t>
+          <t>东吴兴享成长混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>79.65</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005482</t>
+          <t>160314</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合A</t>
+          <t>华夏行业混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.78</t>
+          <t>24.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7728</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005483</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合C</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>72.78</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002389</t>
+          <t>010403</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合A</t>
+          <t>华商景气优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2191</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002390</t>
+          <t>008555</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合C</t>
+          <t>华商龙头优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2191</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002776</t>
+          <t>000800</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合A</t>
+          <t>华商未来主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002777</t>
+          <t>000314</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合C</t>
+          <t>招商瑞丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000314</t>
+          <t>001427</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合A</t>
+          <t>招商丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002017</t>
+          <t>002776</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合C</t>
+          <t>招商安荣灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000800</t>
+          <t>002389</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华商未来主题混合</t>
+          <t>招商安德灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>84.91</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010403</t>
+          <t>002819</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华商景气优选混合</t>
+          <t>招商丰美灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001427</t>
+          <t>002017</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合A</t>
+          <t>招商瑞丰灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001446</t>
+          <t>002390</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合C</t>
+          <t>招商安德灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>005482</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>博时创新驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>82.61</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>160314</t>
+          <t>001446</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏行业混合(LOF)</t>
+          <t>招商丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002819</t>
+          <t>005483</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合A</t>
+          <t>博时创新驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25.66</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002820</t>
+          <t>002777</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合C</t>
+          <t>招商安荣灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>25.66</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008555</t>
+          <t>002820</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华商龙头优势混合</t>
+          <t>招商丰美灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>86.61</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
+++ b/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
+++ b/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1790,4 +1791,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5954</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2394</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2093</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0335</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
+++ b/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2227,4 +2228,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
+++ b/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2236,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,17 +2248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2267,14 +2288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.51</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0498</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2283,14 +2326,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1982</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2299,14 +2364,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.32</v>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9492</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2315,13 +2402,1481 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5398</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1639</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6170</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4756</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4468</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4260</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
+++ b/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3775,7 +3776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3786,17 +3787,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3806,14 +3827,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.58</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3822,14 +3865,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.51</v>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2377</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3838,14 +3903,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3854,14 +3941,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.32</v>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8815</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3870,13 +3979,1193 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8242</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6271</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5303</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4446</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
+++ b/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5048,7 +5049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5059,17 +5060,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5079,14 +5100,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.6</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5095,14 +5138,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.58</v>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8827</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5111,14 +5176,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.51</v>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4631</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5127,14 +5214,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3752</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5143,14 +5252,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.32</v>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9946</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -5159,13 +5290,943 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8411</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7348</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
+++ b/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>13.58</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>13.6</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>15.58</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>6.51</v>
+        <v>15.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.32</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -600,6 +617,1126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0946</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5568</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1901</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2549</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7757</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6323</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5347</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011572</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011573</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1643,7 +2780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2915,7 +4052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4453,7 +5590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4889,7 +6026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5059,7 +6196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5761,7 +6898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
+++ b/数据整理/stocks/A股/创业板/300451-创业慧康.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>12.23</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>13.58</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>15.58</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>6.51</v>
+        <v>15.58</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>2.32</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -616,7 +633,2473 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9538</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5897</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002474</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮睿信增强债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4766</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4329</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7167</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7286</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3835</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7395</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7304</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7141</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6862</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015561</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城双动力混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城双动力混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011573</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011572</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>60.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>016029</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>60.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>016030</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1736,7 +4219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2780,7 +5263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4052,7 +6535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5590,7 +8073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6026,7 +8509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6196,7 +8679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6896,478 +9379,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160314</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏行业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>29.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9538</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007777</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮研究精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5897</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002474</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中邮睿信增强债券</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4766</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010330</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东吴兴享成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>34.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>36.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4329</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>590006</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中邮中小盘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2207</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0413</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009077</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>33.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0356</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009078</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>33.47</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501008</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>50.44</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011462</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东吴兴享成长混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>36.10</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>